--- a/Oficial/Patron_FL_DDRUAN.xlsx
+++ b/Oficial/Patron_FL_DDRUAN.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="565" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="628" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_SSE" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Labs" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Parametros" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="321">
   <si>
     <t>SOLICITUD  DE SERVICIO EXTERNO A LABORATORIO</t>
   </si>
@@ -562,7 +563,7 @@
 GABRIELA FRANYOLA (muestras)</t>
   </si>
   <si>
-    <t>SGS-SANTIAGO</t>
+    <t>SGS SANTIAGO</t>
   </si>
   <si>
     <t>PUERTO MADERO 130. PUDAHUEL</t>
@@ -574,7 +575,7 @@
     <t>LEYDI CORTÉS</t>
   </si>
   <si>
-    <t>SGS-ANTOFA</t>
+    <t>SGS ANTOFAGASTA</t>
   </si>
   <si>
     <t>PEDRO AGUIRRE CERDA N°7367. ANTOFAGASTA</t>
@@ -586,7 +587,7 @@
     <t>CECILIA TAPIA</t>
   </si>
   <si>
-    <t>ALS-ANTOFA</t>
+    <t>ALS ANTOFAGASTA</t>
   </si>
   <si>
     <t>JUAN GUTEMBERG N°438, GALPÓN 9 Y 10. ANTOFAGASTA</t>
@@ -601,7 +602,7 @@
     <t>JOHANNA GONZALEZ</t>
   </si>
   <si>
-    <t>ALS-SANTIAGO</t>
+    <t>ALS SANTIAGO</t>
   </si>
   <si>
     <t>HERMANOS CARRERA PINTO 159, PAQUE INDUSTRIAL LOS LIBERTADOSRES COLINA</t>
@@ -681,6 +682,345 @@
   </si>
   <si>
     <t>JUAN MANDUCHER (Administración)</t>
+  </si>
+  <si>
+    <t>Nombre Parámetro</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>Cotización</t>
+  </si>
+  <si>
+    <t>Metodología</t>
+  </si>
+  <si>
+    <t>Costo Unitario</t>
+  </si>
+  <si>
+    <t>Unidad Costo</t>
+  </si>
+  <si>
+    <t>Conductividad total</t>
+  </si>
+  <si>
+    <t>Conductividad  disuelto</t>
+  </si>
+  <si>
+    <t>Feofitina total</t>
+  </si>
+  <si>
+    <t>Feofitina  disuelto</t>
+  </si>
+  <si>
+    <t>Fósforo total</t>
+  </si>
+  <si>
+    <t>Fósforo  disuelto</t>
+  </si>
+  <si>
+    <t>nitrato total</t>
+  </si>
+  <si>
+    <t>nitrato  disuelto</t>
+  </si>
+  <si>
+    <t>nitrito total</t>
+  </si>
+  <si>
+    <t>nitrito  disuelto</t>
+  </si>
+  <si>
+    <t>Oxígeno total</t>
+  </si>
+  <si>
+    <t>Oxígeno  disuelto</t>
+  </si>
+  <si>
+    <t>pH total</t>
+  </si>
+  <si>
+    <t>pH  disuelto</t>
+  </si>
+  <si>
+    <t>Salinidad total</t>
+  </si>
+  <si>
+    <t>Salinidad  disuelto</t>
+  </si>
+  <si>
+    <t>Sólidos total</t>
+  </si>
+  <si>
+    <t>Sólidos  disuelto</t>
+  </si>
+  <si>
+    <t>Sulfato total</t>
+  </si>
+  <si>
+    <t>Sulfato  disuelto</t>
+  </si>
+  <si>
+    <t>Temperatura total</t>
+  </si>
+  <si>
+    <t>Temperatura  disuelto</t>
+  </si>
+  <si>
+    <t>Turbiedad total</t>
+  </si>
+  <si>
+    <t>Turbiedad  disuelto</t>
+  </si>
+  <si>
+    <t>Clorofila total</t>
+  </si>
+  <si>
+    <t>Clorofila  disuelto</t>
+  </si>
+  <si>
+    <t>Cromo total</t>
+  </si>
+  <si>
+    <t>Cromo  disuelto</t>
+  </si>
+  <si>
+    <t>Color total</t>
+  </si>
+  <si>
+    <t>Color  disuelto</t>
+  </si>
+  <si>
+    <t>HAMs total</t>
+  </si>
+  <si>
+    <t>HAMs  disuelto</t>
+  </si>
+  <si>
+    <t>HAPs total</t>
+  </si>
+  <si>
+    <t>HAPs  disuelto</t>
+  </si>
+  <si>
+    <t>Detergentes total</t>
+  </si>
+  <si>
+    <t>Detergentes  disuelto</t>
+  </si>
+  <si>
+    <t>Índice total</t>
+  </si>
+  <si>
+    <t>Índice  disuelto</t>
+  </si>
+  <si>
+    <t>Hidrocarburos total</t>
+  </si>
+  <si>
+    <t>Hidrocarburos  disuelto</t>
+  </si>
+  <si>
+    <t>Coliformes total</t>
+  </si>
+  <si>
+    <t>Coliformes  disuelto</t>
+  </si>
+  <si>
+    <t>DBO5 total</t>
+  </si>
+  <si>
+    <t>DBO5  disuelto</t>
+  </si>
+  <si>
+    <t>Nitrógeno total</t>
+  </si>
+  <si>
+    <t>Nitrógeno  disuelto</t>
+  </si>
+  <si>
+    <t>Cianuro total</t>
+  </si>
+  <si>
+    <t>Cianuro  disuelto</t>
+  </si>
+  <si>
+    <t>Fluoruro total</t>
+  </si>
+  <si>
+    <t>Fluoruro  disuelto</t>
+  </si>
+  <si>
+    <t>Aceites total</t>
+  </si>
+  <si>
+    <t>Aceites  disuelto</t>
+  </si>
+  <si>
+    <t>Cadmio total</t>
+  </si>
+  <si>
+    <t>Cadmio  disuelto</t>
+  </si>
+  <si>
+    <t>Cobre total</t>
+  </si>
+  <si>
+    <t>Cobre  disuelto</t>
+  </si>
+  <si>
+    <t>Estaño total</t>
+  </si>
+  <si>
+    <t>Estaño  disuelto</t>
+  </si>
+  <si>
+    <t>Hierro total</t>
+  </si>
+  <si>
+    <t>Hierro  disuelto</t>
+  </si>
+  <si>
+    <t>Manganeso total</t>
+  </si>
+  <si>
+    <t>Manganeso  disuelto</t>
+  </si>
+  <si>
+    <t>Mercurio total</t>
+  </si>
+  <si>
+    <t>Mercurio  disuelto</t>
+  </si>
+  <si>
+    <t>Molibdeno total</t>
+  </si>
+  <si>
+    <t>Molibdeno  disuelto</t>
+  </si>
+  <si>
+    <t>Plomo total</t>
+  </si>
+  <si>
+    <t>Plomo  disuelto</t>
+  </si>
+  <si>
+    <t>Selenio total</t>
+  </si>
+  <si>
+    <t>Selenio  disuelto</t>
+  </si>
+  <si>
+    <t>Zinc total</t>
+  </si>
+  <si>
+    <t>Zinc  disuelto</t>
+  </si>
+  <si>
+    <t>Aluminio total</t>
+  </si>
+  <si>
+    <t>Aluminio  disuelto</t>
+  </si>
+  <si>
+    <t>Arsénico total</t>
+  </si>
+  <si>
+    <t>Arsénico  disuelto</t>
+  </si>
+  <si>
+    <t>COT total</t>
+  </si>
+  <si>
+    <t>COT  disuelto</t>
+  </si>
+  <si>
+    <t>GRANULOMETRIA total</t>
+  </si>
+  <si>
+    <t>AQUAGESTION</t>
+  </si>
+  <si>
+    <t>GRANULOMETRIA  disuelto</t>
+  </si>
+  <si>
+    <t>MATERIA total</t>
+  </si>
+  <si>
+    <t>MATERIA  disuelto</t>
+  </si>
+  <si>
+    <t>ACEITES total</t>
+  </si>
+  <si>
+    <t>ACEITES  disuelto</t>
+  </si>
+  <si>
+    <t>HIDROCARBUROS total</t>
+  </si>
+  <si>
+    <t>HIDROCARBUROS  disuelto</t>
+  </si>
+  <si>
+    <t>As total</t>
+  </si>
+  <si>
+    <t>As  disuelto</t>
+  </si>
+  <si>
+    <t>Cd total</t>
+  </si>
+  <si>
+    <t>Cd  disuelto</t>
+  </si>
+  <si>
+    <t>Cu total</t>
+  </si>
+  <si>
+    <t>Cu  disuelto</t>
+  </si>
+  <si>
+    <t>Cr total</t>
+  </si>
+  <si>
+    <t>Cr  disuelto</t>
+  </si>
+  <si>
+    <t>Hg total</t>
+  </si>
+  <si>
+    <t>Hg  disuelto</t>
+  </si>
+  <si>
+    <t>Mo total</t>
+  </si>
+  <si>
+    <t>Mo  disuelto</t>
+  </si>
+  <si>
+    <t>Pb total</t>
+  </si>
+  <si>
+    <t>Pb  disuelto</t>
+  </si>
+  <si>
+    <t>Se total</t>
+  </si>
+  <si>
+    <t>Se  disuelto</t>
+  </si>
+  <si>
+    <t>Zn total</t>
+  </si>
+  <si>
+    <t>Zn  disuelto</t>
+  </si>
+  <si>
+    <t>NITRÓGENO total</t>
+  </si>
+  <si>
+    <t>NITRÓGENO  disuelto</t>
   </si>
 </sst>
 </file>
@@ -692,7 +1032,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -804,6 +1144,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF1F497D"/>
       <name val="Arial"/>
@@ -994,7 +1341,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1263,8 +1610,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1344,15 +1703,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>469440</xdr:colOff>
+      <xdr:colOff>496440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1031040</xdr:colOff>
+      <xdr:colOff>1057680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>776880</xdr:rowOff>
+      <xdr:rowOff>776520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1365,8 +1724,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="469440" y="7560"/>
-          <a:ext cx="561600" cy="769320"/>
+          <a:off x="496440" y="7560"/>
+          <a:ext cx="561240" cy="768960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1388,8 +1747,8 @@
   </sheetPr>
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F90" activeCellId="0" sqref="F90"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F90" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3395,10 +3754,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3410,7 +3769,7 @@
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="65" t="s">
         <v>159</v>
       </c>
@@ -3427,182 +3786,1211 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B3" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="66" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="67" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B4" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B5" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C5" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C6" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B7" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C7" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D7" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E7" s="68" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B8" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C8" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="66" t="s">
+      <c r="D8" s="68"/>
+      <c r="E8" s="67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="66" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B9" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E9" s="67" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B10" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="66" t="s">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B11" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C11" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="68" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B12" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C12" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67" t="s">
+      <c r="D12" s="67"/>
+      <c r="E12" s="68" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="66" t="s">
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B13" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C13" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67" t="s">
+      <c r="D13" s="67"/>
+      <c r="E13" s="68" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B14" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C14" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67" t="s">
+      <c r="D14" s="67"/>
+      <c r="E14" s="68" t="s">
         <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F121"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="0" t="str">
+        <f aca="false">+VLOOKUP(D53,A1:B121,1)</f>
+        <v>Conductividad  disuelto</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B66" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B74" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B75" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B79" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B80" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B81" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B82" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B83" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B86" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B88" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B103" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B106" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B107" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B108" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B109" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B110" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B111" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B112" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B113" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B114" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B115" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B116" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B117" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B118" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B119" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
